--- a/CASUAL/LA TICC/PANGANIBAN, CAROLINA.xlsx
+++ b/CASUAL/LA TICC/PANGANIBAN, CAROLINA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>UT(0-1-0)</t>
+  </si>
+  <si>
+    <t>UT(0-5-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-24)</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
   </si>
 </sst>
 </file>
@@ -896,7 +905,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1225,12 +1234,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K70"/>
+  <dimension ref="A2:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="I8" sqref="I8:I68"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1402,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>22.875</v>
+        <v>22.070999999999998</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1474,11 +1483,15 @@
       <c r="A13" s="24">
         <v>44652</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="C13" s="14">
         <v>1.25</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14">
@@ -1494,11 +1507,15 @@
       <c r="A14" s="24">
         <v>44682</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C14" s="14">
         <v>1.25</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>5.000000000000001E-2</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="12"/>
       <c r="G14" s="14">
@@ -1537,196 +1554,188 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>44743</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D16" s="12"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="42">
+        <v>0.625</v>
+      </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H16" s="42"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="39">
-        <v>44773</v>
-      </c>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="42"/>
+      <c r="A17" s="24">
+        <v>44743</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D17" s="12"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H17" s="42">
-        <v>3</v>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="39" t="s">
-        <v>47</v>
+      <c r="K17" s="39">
+        <v>44773</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>44774</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D18" s="12"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H18" s="12"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H18" s="42">
+        <v>3</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="21"/>
+      <c r="K18" s="39" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>44805</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D19" s="12"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="42">
+        <v>0.125</v>
+      </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H19" s="12">
-        <v>1</v>
-      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H19" s="42"/>
       <c r="I19" s="9"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="39">
-        <v>44814</v>
-      </c>
+      <c r="K19" s="39"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="42"/>
+      <c r="A20" s="24">
+        <v>44774</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="12"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H20" s="42">
-        <v>1</v>
-      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H20" s="12"/>
       <c r="I20" s="9"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="39">
-        <v>44823</v>
-      </c>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="42"/>
+      <c r="A21" s="24">
+        <v>44805</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="12"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H21" s="42">
-        <v>2</v>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="39" t="s">
-        <v>49</v>
+      <c r="K21" s="39">
+        <v>44814</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>44835</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D22" s="12"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H22" s="12"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H22" s="42">
+        <v>1</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="21"/>
+      <c r="K22" s="39">
+        <v>44823</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>44866</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D23" s="12">
-        <v>5</v>
-      </c>
+      <c r="A23" s="24"/>
+      <c r="B23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H23" s="12"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H23" s="42">
+        <v>2</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="21" t="s">
-        <v>51</v>
+      <c r="K23" s="39" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
-        <v>44896</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>44835</v>
+      </c>
+      <c r="B24" s="12"/>
       <c r="C24" s="14">
         <v>1.25</v>
       </c>
@@ -1737,128 +1746,132 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H24" s="12">
-        <v>1</v>
-      </c>
+      <c r="H24" s="12"/>
       <c r="I24" s="9"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="39">
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>44866</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="12">
+        <v>5</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>44896</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="39">
         <v>44909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H25" s="13">
-        <v>1</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="47">
-        <v>44900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H26" s="13">
-        <v>1</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="47">
-        <v>44923</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="47">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="47">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="42">
+      <c r="C29" s="14"/>
+      <c r="D29" s="42">
         <v>0.125</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H27" s="42"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="39"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
-        <v>44927</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D29" s="12"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H29" s="12">
-        <v>1</v>
-      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H29" s="42"/>
       <c r="I29" s="9"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="39">
-        <v>44932</v>
-      </c>
+      <c r="K29" s="39"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A30" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="12"/>
       <c r="C30" s="14"/>
       <c r="D30" s="12"/>
       <c r="E30" s="9"/>
@@ -1870,22 +1883,24 @@
       <c r="H30" s="12"/>
       <c r="I30" s="9"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="39">
-        <v>44956</v>
-      </c>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="24">
+        <v>44927</v>
+      </c>
       <c r="B31" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D31" s="12"/>
       <c r="E31" s="9"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G31" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H31" s="12">
         <v>1</v>
@@ -1893,33 +1908,27 @@
       <c r="I31" s="9"/>
       <c r="J31" s="12"/>
       <c r="K31" s="39">
-        <v>44957</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
-        <v>44958</v>
-      </c>
+      <c r="A32" s="24"/>
       <c r="B32" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D32" s="12">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="9"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G32" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="9"/>
       <c r="J32" s="12"/>
-      <c r="K32" s="21" t="s">
-        <v>54</v>
+      <c r="K32" s="39">
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1941,20 +1950,22 @@
       <c r="I33" s="9"/>
       <c r="J33" s="12"/>
       <c r="K33" s="39">
-        <v>44965</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C34" s="14">
         <v>1.25</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="12">
+        <v>2</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="12"/>
       <c r="G34" s="14">
@@ -1965,13 +1976,13 @@
       <c r="I34" s="9"/>
       <c r="J34" s="12"/>
       <c r="K34" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="12"/>
@@ -1982,19 +1993,21 @@
         <v/>
       </c>
       <c r="H35" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="21" t="s">
-        <v>57</v>
+      <c r="K35" s="39">
+        <v>44965</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
-        <v>45017</v>
-      </c>
-      <c r="B36" s="12"/>
+        <v>44986</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="C36" s="14">
         <v>1.25</v>
       </c>
@@ -2008,41 +2021,37 @@
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="21"/>
+      <c r="K36" s="21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
-        <v>45047</v>
-      </c>
+      <c r="A37" s="24"/>
       <c r="B37" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D37" s="12">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="9"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H37" s="12"/>
+      <c r="G37" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H37" s="12">
+        <v>2</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="12"/>
       <c r="K37" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
-        <v>45078</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B38" s="12"/>
       <c r="C38" s="14">
         <v>1.25</v>
       </c>
@@ -2053,42 +2062,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H38" s="12">
-        <v>1</v>
-      </c>
+      <c r="H38" s="12"/>
       <c r="I38" s="9"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="39">
-        <v>45071</v>
-      </c>
+      <c r="K38" s="21"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
+      <c r="A39" s="24">
+        <v>45047</v>
+      </c>
       <c r="B39" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D39" s="12">
+        <v>3</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H39" s="12">
-        <v>1</v>
-      </c>
+      <c r="G39" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H39" s="12"/>
       <c r="I39" s="9"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="39">
-        <v>45096</v>
+      <c r="K39" s="21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
-        <v>45108</v>
-      </c>
-      <c r="B40" s="12"/>
+        <v>45078</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C40" s="14">
         <v>1.25</v>
       </c>
@@ -2099,27 +2110,27 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H40" s="12"/>
+      <c r="H40" s="12">
+        <v>1</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="21"/>
+      <c r="K40" s="39">
+        <v>45071</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
-        <v>45139</v>
-      </c>
+      <c r="A41" s="24"/>
       <c r="B41" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="14">
-        <v>1.25</v>
-      </c>
+      <c r="C41" s="14"/>
       <c r="D41" s="12"/>
       <c r="E41" s="9"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G41" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H41" s="12">
         <v>1</v>
@@ -2127,69 +2138,81 @@
       <c r="I41" s="9"/>
       <c r="J41" s="12"/>
       <c r="K41" s="39">
-        <v>45160</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="42"/>
+      <c r="A42" s="24">
+        <v>45108</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D42" s="12"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H42" s="42">
-        <v>1</v>
-      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H42" s="12"/>
       <c r="I42" s="9"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="39">
-        <v>45142</v>
-      </c>
+      <c r="K42" s="21"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
-        <v>45170</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="14"/>
+        <v>45139</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D43" s="12"/>
       <c r="E43" s="9"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H43" s="12"/>
+      <c r="G43" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="21"/>
+      <c r="K43" s="39">
+        <v>45160</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
-        <v>45200</v>
-      </c>
-      <c r="B44" s="12"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C44" s="14"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="42"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="42">
+        <v>1</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="21"/>
+      <c r="K44" s="39">
+        <v>45142</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="A45" s="24">
+        <v>45170</v>
+      </c>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
       <c r="D45" s="12"/>
@@ -2205,7 +2228,9 @@
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
+      <c r="A46" s="24">
+        <v>45200</v>
+      </c>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
       <c r="D46" s="12"/>
@@ -2334,27 +2359,27 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
-      <c r="B54" s="13"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="13"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="12"/>
       <c r="G54" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="16"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="21"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
-      <c r="B55" s="13"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="13"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -2375,10 +2400,10 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="21"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="16"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
@@ -2519,18 +2544,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="16"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="21"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
-      <c r="B66" s="12"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="12"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="13"/>
       <c r="G66" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -2542,19 +2567,19 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
-      <c r="B67" s="12"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="12"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="13"/>
       <c r="G67" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="21"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="16"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
@@ -2590,19 +2615,51 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
-      <c r="B70" s="13"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="13"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="16"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H71" s="12"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="13"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2716,13 +2773,13 @@
         <v>13.75</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12">
+        <v>2</v>
+      </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.125</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J3" s="45"/>
       <c r="K3" s="36">

--- a/CASUAL/LA TICC/PANGANIBAN, CAROLINA.xlsx
+++ b/CASUAL/LA TICC/PANGANIBAN, CAROLINA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>02/12-15/2024</t>
   </si>
 </sst>
 </file>
@@ -905,7 +914,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1234,12 +1243,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K72"/>
+  <dimension ref="A2:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="I8" sqref="I8:I68"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,7 +1411,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>22.070999999999998</v>
+        <v>24.320999999999998</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1412,7 +1421,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.5</v>
+        <v>22.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -2214,13 +2223,15 @@
         <v>45170</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="14"/>
+      <c r="C45" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D45" s="12"/>
       <c r="E45" s="9"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G45" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="9"/>
@@ -2232,13 +2243,15 @@
         <v>45200</v>
       </c>
       <c r="B46" s="12"/>
-      <c r="C46" s="14"/>
+      <c r="C46" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D46" s="12"/>
       <c r="E46" s="9"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G46" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="9"/>
@@ -2246,15 +2259,19 @@
       <c r="K46" s="21"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
+      <c r="A47" s="24">
+        <v>45231</v>
+      </c>
       <c r="B47" s="12"/>
-      <c r="C47" s="14"/>
+      <c r="C47" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D47" s="12"/>
       <c r="E47" s="9"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G47" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="9"/>
@@ -2262,15 +2279,19 @@
       <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
+      <c r="A48" s="24">
+        <v>45261</v>
+      </c>
       <c r="B48" s="12"/>
-      <c r="C48" s="14"/>
+      <c r="C48" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D48" s="12"/>
       <c r="E48" s="9"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G48" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="9"/>
@@ -2278,42 +2299,55 @@
       <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
+      <c r="A49" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="B49" s="12"/>
       <c r="C49" s="14"/>
       <c r="D49" s="12"/>
       <c r="E49" s="9"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G49" s="14"/>
       <c r="H49" s="12"/>
       <c r="I49" s="9"/>
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="24">
+        <v>45292</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="12"/>
       <c r="E50" s="9"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="9"/>
       <c r="J50" s="12"/>
-      <c r="K50" s="21"/>
+      <c r="K50" s="39">
+        <v>45321</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="24">
+        <v>45323</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="C51" s="14"/>
-      <c r="D51" s="12"/>
+      <c r="D51" s="12">
+        <v>4</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="12"/>
       <c r="G51" s="14" t="str">
@@ -2323,10 +2357,14 @@
       <c r="H51" s="12"/>
       <c r="I51" s="9"/>
       <c r="J51" s="12"/>
-      <c r="K51" s="21"/>
+      <c r="K51" s="21" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
+      <c r="A52" s="24">
+        <v>45352</v>
+      </c>
       <c r="B52" s="12"/>
       <c r="C52" s="14"/>
       <c r="D52" s="12"/>
@@ -2342,7 +2380,9 @@
       <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
+      <c r="A53" s="24">
+        <v>45383</v>
+      </c>
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
@@ -2358,7 +2398,9 @@
       <c r="K53" s="21"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
+      <c r="A54" s="24">
+        <v>45413</v>
+      </c>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
       <c r="D54" s="12"/>
@@ -2374,7 +2416,9 @@
       <c r="K54" s="21"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
+      <c r="A55" s="24">
+        <v>45444</v>
+      </c>
       <c r="B55" s="12"/>
       <c r="C55" s="14"/>
       <c r="D55" s="12"/>
@@ -2390,23 +2434,27 @@
       <c r="K55" s="21"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="13"/>
+      <c r="A56" s="24">
+        <v>45474</v>
+      </c>
+      <c r="B56" s="12"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="13"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="12"/>
       <c r="G56" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="16"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="21"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
+      <c r="A57" s="24">
+        <v>45505</v>
+      </c>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
       <c r="D57" s="13"/>
@@ -2416,13 +2464,15 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="21"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="16"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
+      <c r="A58" s="24">
+        <v>45536</v>
+      </c>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
       <c r="D58" s="13"/>
@@ -2438,7 +2488,9 @@
       <c r="K58" s="21"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="24">
+        <v>45566</v>
+      </c>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
       <c r="D59" s="13"/>
@@ -2454,7 +2506,9 @@
       <c r="K59" s="21"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="24">
+        <v>45597</v>
+      </c>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
       <c r="D60" s="13"/>
@@ -2470,7 +2524,9 @@
       <c r="K60" s="21"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="24">
+        <v>45627</v>
+      </c>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
       <c r="D61" s="13"/>
@@ -2576,26 +2632,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H67" s="13"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="16"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="21"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
-      <c r="B68" s="12"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="12"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="13"/>
       <c r="G68" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="21"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="16"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
@@ -2647,19 +2703,35 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
-      <c r="B72" s="13"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="13"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="12"/>
       <c r="G72" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="16"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H73" s="13"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
